--- a/Popol/Table.xlsx
+++ b/Popol/Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="124">
   <si>
     <t>PRODUCT_WITH_COMPATIABLE ISSUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,27 +50,366 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>R/TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUFACTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOLER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUFACTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUFACTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUFACTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTSTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINBOARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUFACTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_FACTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>darkflash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I9 13900KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4 / D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z790 ROG APEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF7100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR5 16GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM.9A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GALAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX4090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEASONIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOCUS GX-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOLER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOCTUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH D-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPATIBLE CASE_ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPATIBLE CASE_ 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLM 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-ATX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; CONFLICTS 
+alerts ("메인보드와 케이스가 호환되지 않습니다")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RYZEN R7 7800X3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF 7100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; CONFLICTS 
+alerts ("CPU와 메인보드가 호환되지 않습니다.")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPATIBLE CASE_ 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i5 9400F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR4 8GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; CONFLICTS 
+alerts ("해당 메인보드엔 M.2방식 SSD를 지원하지 않습니다..")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H310-PRO VD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ATX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F_FACTOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R/TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANUFACTURE</t>
+    <t>GRADE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,23 +417,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GRADE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COOLER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANUFACTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE</t>
+    <t>COMPATIBLE CASE_ 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLM21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ATX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I9 11900KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYPER K 500W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; CONFLICTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_FACTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINBOARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEL I9 13900KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H110M DS2V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;해당 CPU가 메인보드와 호환이 되지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;해당 메인보드와 호환되지 않는 부품이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;해당 램은 메인보드와 호환되지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM9A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;해당 메인보드에는 M.2슬롯이 없어 장착 불가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +545,42 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -135,18 +588,431 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,102 +1291,1623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G14"/>
+  <dimension ref="B2:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="36.296875" customWidth="1"/>
-    <col min="3" max="3" width="24.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="8.8984375" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="2:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G7" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="9">
+        <v>4</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="3">
+        <v>4</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="9">
+        <v>4</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
+    </row>
+    <row r="42" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="2:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="3">
+        <v>4</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="9">
+        <v>4</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="37"/>
+    </row>
+    <row r="54" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="3">
+        <v>4</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="9">
+        <v>4</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="37"/>
+    </row>
+    <row r="66" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="67" spans="2:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="3">
+        <v>4</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="3">
+        <v>4</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71" s="3">
+        <v>4</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" s="3">
+        <v>4</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" s="3">
+        <v>4</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="9">
+        <v>4</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="37"/>
+    </row>
+    <row r="78" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="79" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B80" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B81" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B82" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B83" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="18"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
+      <c r="C92" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B16:G16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Popol/Table.xlsx
+++ b/Popol/Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="133">
   <si>
     <t>PRODUCT_WITH_COMPATIABLE ISSUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,6 +522,42 @@
   </si>
   <si>
     <t>&gt;해당 메인보드에는 M.2슬롯이 없어 장착 불가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWERCALC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -873,6 +909,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -885,129 +945,138 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1291,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I92"/>
+  <dimension ref="B2:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1309,1536 +1378,1536 @@
   <sheetData>
     <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="17"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="17"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>4</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>4</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>4</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="H23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="29" t="s">
+      <c r="G24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="2">
         <v>4</v>
       </c>
-      <c r="H27" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="H27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>4</v>
       </c>
-      <c r="H28" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="18" t="s">
+      <c r="H28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="2:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="5" t="s">
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>4</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>4</v>
       </c>
-      <c r="H35" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="6" t="s">
+      <c r="H35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="29" t="s">
+      <c r="G36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>4</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="E39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="2">
         <v>4</v>
       </c>
-      <c r="H39" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="H39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>4</v>
       </c>
-      <c r="H40" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="18" t="s">
+      <c r="H40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="2:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" s="5" t="s">
+      <c r="G45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>4</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>4</v>
       </c>
-      <c r="H47" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="6" t="s">
+      <c r="H47" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="29" t="s">
+      <c r="G48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="E49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H49" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>4</v>
       </c>
-      <c r="H50" s="28" t="s">
+      <c r="H50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="E51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="2">
         <v>4</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="5" t="s">
+      <c r="H51" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="8">
         <v>4</v>
       </c>
-      <c r="H52" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I52" s="18" t="s">
+      <c r="H52" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="37"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25"/>
     </row>
     <row r="54" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="55" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="H56" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57" s="5" t="s">
+      <c r="G57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <v>1</v>
       </c>
-      <c r="H58" s="29" t="s">
+      <c r="H58" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>1</v>
       </c>
-      <c r="H59" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I59" s="39" t="s">
+      <c r="H59" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="29" t="s">
+      <c r="G60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="E61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H61" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I61" s="39" t="s">
+      <c r="I61" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="2">
         <v>4</v>
       </c>
-      <c r="H62" s="28" t="s">
+      <c r="H62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="E63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="2">
         <v>4</v>
       </c>
-      <c r="H63" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="5" t="s">
+      <c r="H63" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="8">
         <v>4</v>
       </c>
-      <c r="H64" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I64" s="18" t="s">
+      <c r="H64" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="37"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="25"/>
     </row>
     <row r="66" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="67" spans="2:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="22"/>
     </row>
     <row r="68" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="31" t="s">
+      <c r="H68" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="I68" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="2">
         <v>4</v>
       </c>
-      <c r="H69" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I69" s="5" t="s">
+      <c r="H69" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F70" s="35" t="s">
+      <c r="F70" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="2">
         <v>4</v>
       </c>
-      <c r="H70" s="40" t="s">
+      <c r="H70" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="35" t="s">
+      <c r="F71" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="2">
         <v>4</v>
       </c>
-      <c r="H71" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I71" s="6" t="s">
+      <c r="H71" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" s="40" t="s">
+      <c r="G72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="E73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H73" s="28" t="s">
+      <c r="H73" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="2">
         <v>4</v>
       </c>
-      <c r="H74" s="28" t="s">
+      <c r="H74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G75" s="3">
+      <c r="E75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" s="2">
         <v>4</v>
       </c>
-      <c r="H75" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I75" s="5" t="s">
+      <c r="H75" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="8">
         <v>4</v>
       </c>
-      <c r="H76" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I76" s="18" t="s">
+      <c r="H76" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="37"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="25"/>
     </row>
     <row r="78" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="79" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="28"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="5"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D84" s="18"/>
+      <c r="D84" s="12"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
@@ -2884,17 +2953,128 @@
         <v>123</v>
       </c>
     </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B94" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="42"/>
+      <c r="D94" s="43"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B95" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="1">
+        <v>100</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="1">
+        <v>200</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="1">
+        <v>250</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="1">
+        <v>200</v>
+      </c>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="1">
+        <v>300</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B100" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="1">
+        <v>350</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B101" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B102" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B65:I65"/>
+  <mergeCells count="20">
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B3:G3"/>
@@ -2905,6 +3085,15 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B65:I65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Popol/Table.xlsx
+++ b/Popol/Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Web1\History\Popol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\web1\History\Popol\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="130">
   <si>
     <t>PRODUCT_WITH_COMPATIABLE ISSUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MANUFACTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GRADE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,18 +58,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MANUFACTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COOLER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MANUFACTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,19 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MANUFACTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>POWER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANUFACTURE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -558,6 +538,14 @@
   </si>
   <si>
     <t>NVME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,6 +994,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,6 +1021,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,51 +1064,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1362,1718 +1350,1644 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.09765625" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="32" t="s">
+    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="35" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="2">
         <v>4</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G23" s="2">
         <v>4</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="G25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" s="2">
         <v>4</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G27" s="2">
         <v>4</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I28" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:9" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="2:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="E33" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E34" s="1"/>
+      <c r="F34" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G34" s="2">
         <v>4</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G35" s="2">
         <v>4</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="H35" s="13"/>
       <c r="I35" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="14" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="2">
         <v>4</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H38" s="13"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="2">
         <v>4</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H39" s="13"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="8">
         <v>4</v>
       </c>
-      <c r="H40" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="23" t="s">
+      <c r="H40" s="15"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="2:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="40"/>
+    </row>
+    <row r="42" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="2:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="20" t="s">
+      <c r="E45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G46" s="2">
         <v>4</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I46" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G47" s="2">
         <v>4</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="14" t="s">
+      <c r="G49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="D50" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G50" s="2">
         <v>4</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G51" s="2">
         <v>4</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25"/>
-    </row>
-    <row r="54" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="40"/>
+    </row>
+    <row r="54" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="28"/>
+    </row>
+    <row r="56" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="10" t="s">
+      <c r="G57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
       </c>
       <c r="H58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="4" t="s">
+      <c r="G61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G62" s="2">
         <v>4</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G63" s="2">
         <v>4</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="25"/>
-    </row>
-    <row r="66" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="67" spans="2:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="22"/>
-    </row>
-    <row r="68" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="40"/>
+    </row>
+    <row r="66" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="2:9" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="28"/>
+    </row>
+    <row r="68" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G69" s="2">
         <v>4</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G70" s="2">
         <v>4</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I70" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G71" s="2">
         <v>4</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="E73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" s="19" t="s">
+      <c r="G73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="D74" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B73" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G74" s="2">
         <v>4</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G75" s="2">
         <v>4</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="40"/>
+    </row>
+    <row r="78" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="25"/>
-    </row>
-    <row r="78" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="26" t="s">
+      <c r="C82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="28"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B80" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="C83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B81" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="D84" s="12"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B82" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B83" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" s="12"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B89" t="s">
+      <c r="D90" t="s">
         <v>114</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" t="s">
         <v>116</v>
       </c>
-      <c r="D89" t="s">
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B90" t="s">
-        <v>115</v>
-      </c>
-      <c r="C90" t="s">
-        <v>117</v>
-      </c>
-      <c r="D90" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="20" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B91" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="C94" s="21"/>
+      <c r="D94" s="22"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B92" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B94" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C94" s="42"/>
-      <c r="D94" s="43"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B95" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C95" s="1">
         <v>100</v>
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C96" s="1">
         <v>200</v>
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C97" s="1">
         <v>250</v>
       </c>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C98" s="1">
         <v>200</v>
       </c>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C99" s="1">
         <v>300</v>
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C100" s="1">
         <v>350</v>
       </c>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C101" s="1">
         <v>5</v>
       </c>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C102" s="1">
         <v>5</v>
       </c>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B65:I65"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B19:I19"/>
@@ -3090,10 +3004,6 @@
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B65:I65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Popol/Table.xlsx
+++ b/Popol/Table.xlsx
@@ -994,6 +994,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,15 +1030,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,15 +1055,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1366,24 +1366,24 @@
   <sheetData>
     <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -1400,14 +1400,14 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -1430,14 +1430,14 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -1454,14 +1454,14 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1478,14 +1478,14 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -1504,14 +1504,14 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
@@ -1526,14 +1526,14 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
@@ -1549,16 +1549,16 @@
     </row>
     <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
@@ -1781,29 +1781,29 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:9" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
@@ -1976,29 +1976,29 @@
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="28"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
@@ -2235,29 +2235,29 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="40"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25"/>
     </row>
     <row r="54" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="28"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
@@ -2494,29 +2494,29 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="40"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="25"/>
     </row>
     <row r="66" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="67" spans="2:9" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="28"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="22"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
@@ -2753,16 +2753,16 @@
       </c>
     </row>
     <row r="77" spans="2:9" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="40"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="25"/>
     </row>
     <row r="78" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="79" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2864,11 +2864,11 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="22"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="28"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
@@ -2984,11 +2984,8 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B41:I41"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B3:G3"/>
@@ -2999,11 +2996,14 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B67:I67"/>
     <mergeCell ref="B77:I77"/>
     <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B41:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
